--- a/SHC code/sims/K_3_line_signal_2nd_dir.xlsx
+++ b/SHC code/sims/K_3_line_signal_2nd_dir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\Documents\GitHub\thesis\SHC code\sims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5C4070-AC18-4B9A-BC2A-E345CA2094B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00409B1-4673-4E21-B459-4493C75D9FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9CA45C61-1169-4AC7-9660-1FA924585924}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>True $K$</t>
   </si>
   <si>
-    <t>Median time (sec.)</t>
-  </si>
-  <si>
     <t>Simulation Settings</t>
   </si>
   <si>
@@ -394,6 +391,9 @@
   </si>
   <si>
     <t xml:space="preserve">Shape and Mean signal </t>
+  </si>
+  <si>
+    <t>Median time for 1 replication (sec.)</t>
   </si>
 </sst>
 </file>
@@ -862,14 +862,14 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -885,7 +885,7 @@
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="12" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="L1" s="10"/>
     </row>
@@ -903,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -938,16 +938,16 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="H3">
         <v>0.32</v>
@@ -976,16 +976,16 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="H4">
         <v>0.86</v>
@@ -1014,16 +1014,16 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1052,16 +1052,16 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1090,16 +1090,16 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1128,16 +1128,16 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8">
         <v>0.21</v>
@@ -1166,16 +1166,16 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="H9">
         <v>0.67</v>
@@ -1204,16 +1204,16 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="H10">
         <v>0.96</v>
@@ -1242,16 +1242,16 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1280,16 +1280,16 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1318,16 +1318,16 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1356,16 +1356,16 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="H14">
         <v>0.31</v>
@@ -1394,16 +1394,16 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="H15">
         <v>0.54</v>
@@ -1432,16 +1432,16 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="H16">
         <v>0.78</v>
@@ -1470,16 +1470,16 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="H17">
         <v>0.89</v>
@@ -1508,16 +1508,16 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="H18">
         <v>0.27</v>
@@ -1546,16 +1546,16 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="H19">
         <v>0.84</v>
@@ -1584,16 +1584,16 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1622,16 +1622,16 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1660,16 +1660,16 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1698,16 +1698,16 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23">
         <v>0.16</v>
@@ -1736,16 +1736,16 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="H24">
         <v>0.62</v>
@@ -1774,16 +1774,16 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25">
         <v>0.96</v>
@@ -1812,16 +1812,16 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1850,16 +1850,16 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1888,16 +1888,16 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1926,16 +1926,16 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="H29">
         <v>0.28999999999999998</v>
@@ -1964,16 +1964,16 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="H30">
         <v>0.53</v>
@@ -2002,16 +2002,16 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="H31">
         <v>0.77</v>
@@ -2040,16 +2040,16 @@
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="H32">
         <v>0.88</v>
@@ -2078,16 +2078,16 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33">
         <v>0.03</v>
@@ -2116,16 +2116,16 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="H34">
         <v>0.37</v>
@@ -2154,16 +2154,16 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="H35">
         <v>0.8</v>
@@ -2192,16 +2192,16 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="H36">
         <v>0.99</v>
@@ -2230,16 +2230,16 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -2268,16 +2268,16 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H38">
         <v>0.01</v>
@@ -2306,16 +2306,16 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H39">
         <v>0.28999999999999998</v>
@@ -2344,16 +2344,16 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="H40">
         <v>0.56999999999999995</v>
@@ -2382,16 +2382,16 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="H41">
         <v>0.92</v>
@@ -2420,16 +2420,16 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F42" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="H42">
         <v>0.99</v>
@@ -2458,16 +2458,16 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2496,16 +2496,16 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="H44">
         <v>0.06</v>
@@ -2534,16 +2534,16 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F45" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="H45">
         <v>0.37</v>
@@ -2572,16 +2572,16 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="H46">
         <v>0.57999999999999996</v>
@@ -2610,16 +2610,16 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="H47">
         <v>0.78</v>
@@ -2648,16 +2648,16 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H48">
         <v>0.01</v>
@@ -2686,16 +2686,16 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H49">
         <v>0.19</v>
@@ -2724,16 +2724,16 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F50" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="H50">
         <v>0.43</v>
@@ -2762,16 +2762,16 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F51" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="H51">
         <v>0.69</v>
@@ -2800,16 +2800,16 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F52" t="s">
+        <v>103</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="H52">
         <v>0.97</v>
@@ -2838,16 +2838,16 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H53">
         <v>0.01</v>
@@ -2876,16 +2876,16 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H54">
         <v>0.08</v>
@@ -2914,16 +2914,16 @@
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H55">
         <v>0.36</v>
@@ -2952,16 +2952,16 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F56" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="H56">
         <v>0.54</v>
@@ -2990,16 +2990,16 @@
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F57" t="s">
+        <v>107</v>
+      </c>
+      <c r="G57" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="H57">
         <v>0.81</v>
@@ -3028,16 +3028,16 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -3066,16 +3066,16 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F59" t="s">
+        <v>109</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="H59">
         <v>0.02</v>
@@ -3104,16 +3104,16 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H60">
         <v>0.16</v>
@@ -3142,16 +3142,16 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="H61">
         <v>0.41</v>
@@ -3180,16 +3180,16 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
+        <v>114</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="H62">
         <v>0.56000000000000005</v>
@@ -3218,16 +3218,16 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3256,16 +3256,16 @@
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H64">
         <v>0.01</v>
@@ -3294,16 +3294,16 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H65">
         <v>0.01</v>
@@ -3332,16 +3332,16 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H66">
         <v>0.03</v>
@@ -3370,16 +3370,16 @@
         <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H67">
         <v>7.0000000000000007E-2</v>
@@ -3408,16 +3408,16 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3446,16 +3446,16 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3484,16 +3484,16 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H70">
         <v>0.01</v>
@@ -3522,16 +3522,16 @@
         <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H71">
         <v>0.02</v>
@@ -3560,16 +3560,16 @@
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H72">
         <v>0.03</v>
@@ -3598,16 +3598,16 @@
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3674,16 +3674,16 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3712,16 +3712,16 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H76">
         <v>0.01</v>
@@ -3750,16 +3750,16 @@
         <v>20</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H77" s="5">
         <v>0.02</v>
